--- a/cursos.xlsx
+++ b/cursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Primer-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559E347-3269-4BC7-AF40-28670ACDFD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF31FC4D-B144-40C5-ACBB-64402AB4BAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{594E950F-9FB4-4BBE-A9BF-A7BF86BA070B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>14:30 a 15:20</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t>Salon 9</t>
-  </si>
-  <si>
-    <t>Costos, Presupuestos y Avaluos</t>
-  </si>
-  <si>
-    <t>Carlos Julián Hernández García</t>
-  </si>
-  <si>
-    <t>Salón Hugo Pineda</t>
   </si>
 </sst>
 </file>
@@ -131,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,12 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE24E03-FEAB-4041-852B-FBED41FFAA82}">
-  <dimension ref="C5:G17"/>
+  <dimension ref="C5:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,8 +500,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    <row r="6" spans="3:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -609,49 +607,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f ca="1">SUM(G5:G15)</f>
+        <v>35</v>
+      </c>
+    </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17">
-        <f>SUM(G5:G15)</f>
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G14:G15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
